--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_12-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_12-52.xlsx
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -1056,11 +1065,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1076,17 +1085,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1094,7 +1103,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1102,51 +1111,103 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" ht="26.25" customHeight="1">
-      <c r="K20" s="10">
-        <v>1364.9500000000001</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="11">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>5</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c t="s" r="N20" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
         <v>37</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c t="s" r="F21" s="12">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
         <v>38</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c t="s" r="I21" s="14">
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>20</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c t="s" r="N21" s="7">
         <v>39</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+    </row>
+    <row r="22" ht="26.25" customHeight="1">
+      <c r="K22" s="10">
+        <v>1422.9500000000001</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="11">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c t="s" r="F23" s="12">
+        <v>41</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+      <c t="s" r="I23" s="14">
+        <v>42</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="65">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1202,10 +1263,16 @@
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:N23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
